--- a/06.project/data/rawdata/주유소/부산진구_주유소_현황.xlsx
+++ b/06.project/data/rawdata/주유소/부산진구_주유소_현황.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\최혜진\부산진구청\담당업무\석유판매업 관리###\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12396"/>
   </bookViews>
   <sheets>
     <sheet name="석유판매업대장 현황" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
-    <t>상호</t>
-  </si>
-  <si>
     <t>영업소전화번호</t>
   </si>
   <si>
@@ -231,10 +223,6 @@
   </si>
   <si>
     <t>051 894 6622</t>
-  </si>
-  <si>
-    <t>소재지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>연번</t>
@@ -254,14 +242,22 @@
   </si>
   <si>
     <t>010 4035 1472</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,7 +419,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,375 +596,375 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="32.125" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="54.875" customWidth="1"/>
+    <col min="2" max="2" width="32.09765625" customWidth="1"/>
+    <col min="3" max="3" width="54.8984375" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" ht="18" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
